--- a/test-main/src/main/resources/rule1/发送到流立方的数据.xlsx
+++ b/test-main/src/main/resources/rule1/发送到流立方的数据.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WITHDRAW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>verifiedData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,14 +139,23 @@
     <t>dataDisposeSehedule</t>
   </si>
   <si>
-    <t>successed</t>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>TRADE</t>
+  </si>
+  <si>
+    <t>PAY.JY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +178,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,12 +209,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,9 +225,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,10 +543,10 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,21 +566,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -568,19 +594,22 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -591,19 +620,22 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -614,19 +646,22 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -637,19 +672,22 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -660,19 +698,22 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -683,19 +724,22 @@
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -706,19 +750,22 @@
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -729,19 +776,22 @@
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -752,19 +802,22 @@
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -775,19 +828,22 @@
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -798,19 +854,22 @@
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -821,19 +880,22 @@
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -844,19 +906,22 @@
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -867,19 +932,22 @@
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -890,19 +958,22 @@
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
@@ -913,8 +984,11 @@
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
+      <c r="G17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
